--- a/Base ropa.xlsx
+++ b/Base ropa.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base ropa" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Grupo</t>
   </si>
@@ -75,213 +75,13 @@
   </si>
   <si>
     <t>lotes de ropa usada zona oeste.</t>
-  </si>
-  <si>
-    <t>Publicaciones en Marketplace</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>14/5 a 15/5</t>
-  </si>
-  <si>
-    <t>VENDE Y COMPRA COSMETICOS</t>
-  </si>
-  <si>
-    <t>COMPRA Y VENTA DE TODO</t>
-  </si>
-  <si>
-    <t>Compro y Vendo Capital Federal</t>
-  </si>
-  <si>
-    <t>COMPRA VENTA CAPITAL FEDERAL Y GBA</t>
-  </si>
-  <si>
-    <t>Compra/Venta Palermo y otros barrios</t>
-  </si>
-  <si>
-    <t>COMPRA Y VENDE TODO 👌🏻</t>
-  </si>
-  <si>
-    <t>Compra, venta, intercambio, Saavedra, Belgrano, Nuñez, Coghlan y aledaños.</t>
-  </si>
-  <si>
-    <t>LINIERS Y ALREDEDORES, VENDEMOS DE TODO</t>
-  </si>
-  <si>
-    <t>compra venta caba</t>
-  </si>
-  <si>
-    <t>compra y venta capital federal Bs. As.</t>
-  </si>
-  <si>
-    <t>ventas y compras de todo tipo !!!!!</t>
-  </si>
-  <si>
-    <t>Usuarios de Facebook en Argentina en 2023</t>
-  </si>
-  <si>
-    <r>
-      <t>Los datos publicados en los recursos publicitarios de Meta indican que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t>Facebook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>tenía</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t>27,35 millones</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>de usuarios en Argentina a principios de 2023.</t>
-    </r>
-  </si>
-  <si>
-    <t>Usuarios de Instagram en Argentina en 2023</t>
-  </si>
-  <si>
-    <r>
-      <t>Los números publicados en las herramientas publicitarias de Meta indican que</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t>Instagram</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>tenía</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t>23,40 millones</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Var(--artdeco-reset-typography-"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>de usuarios en Argentina a principios de 2023.</t>
-    </r>
-  </si>
-  <si>
-    <t>(19) 👉Las redes sociales más usadas en Argentina 2023 | LinkedIn</t>
-  </si>
-  <si>
-    <t>Los datos digitales de Argentina en el 2024 – Observatorio de Medios UCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,17 +109,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Var(--artdeco-reset-typography-"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Var(--artdeco-reset-typography-"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -366,15 +155,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -658,11 +446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -670,7 +458,7 @@
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -680,17 +468,11 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -700,17 +482,11 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5">
-        <v>22000</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -720,17 +496,11 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5">
-        <v>22000</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -740,17 +510,11 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6700</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -760,17 +524,11 @@
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5">
-        <v>41000</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -780,17 +538,11 @@
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5">
-        <v>14000</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -800,17 +552,11 @@
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4800</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -820,17 +566,11 @@
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5">
-        <v>16000</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -840,17 +580,11 @@
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5">
-        <v>11000</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -860,17 +594,11 @@
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -880,17 +608,11 @@
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="5">
-        <v>7800</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -900,110 +622,80 @@
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5">
-        <v>21000</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="42">
-      <c r="A28" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="66">
-      <c r="A30" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="42">
-      <c r="A32" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="66">
-      <c r="A34" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A37" r:id="rId1" display="https://www.linkedin.com/pulse/las-redes-sociales-mas-usadas-en-argentina-ivan-brice%C3%B1o/"/>
-    <hyperlink ref="A39" r:id="rId2" location=":~:text=Las%20redes%20m%C3%A1s%20usadas%20en,%2C%20Instagram%2C%20Facebook%20y%20Tiktok." display="https://observatoriodemedios.uca.edu.ar/los-datos-digitales-de-argentina-en-el-2024/ - :~:text=Las%20redes%20m%C3%A1s%20usadas%20en,%2C%20Instagram%2C%20Facebook%20y%20Tiktok."/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>